--- a/INTLINE/data/578/NESDC/QGDP/Table 4A_historical.xlsx
+++ b/INTLINE/data/578/NESDC/QGDP/Table 4A_historical.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 4" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Non- Agriculture</t>
-  </si>
-  <si>
-    <t>Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Manu- facturing</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Wholesale and Retail Trade, Repair of Vehicles and Personal and Household Goods</t>
-  </si>
-  <si>
-    <t>Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>Public Administration and Defence; Compulsory Social Security</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Health and Social Work</t>
-  </si>
-  <si>
-    <t>Private Household with Employed Persons</t>
-  </si>
-  <si>
-    <t>Gross Domestic Product (sum up)</t>
-  </si>
-  <si>
-    <t>Gross Domestic Product (CVM)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -115,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -412,2315 +353,2686 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BU15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:73">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BR1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BS1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="1" t="n">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>78679.76285</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>76690.37749</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>87888.91187</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>82395.79094000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>92816.44517000001</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>92865.63447999999</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>91593.56301</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>95696.12962000001</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>98053.74022000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>110807.3291</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>114170.2198</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>122623.6364</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>133819.0702</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>136028.932</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>141544.8872</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>159732.1638</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>156200.5576</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>172470.6967</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>185154.1528</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>203540.2409</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>212056.6255</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>208839.9078</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>226290.9463</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>233418.9055</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>243082.6314</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>256772.7507</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>263677.799</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>291765.3738</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>285148.5498</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>287437.136</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>302148.792</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>309626.8667</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>324400.8141</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>338737.1648</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>354007.8856</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>355358.0503</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>355599.4292</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>392974.2302</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>430696.3053</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>410510.7982</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>440306.301</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>461387.2461</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>380830</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>406240</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>411436</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>433206</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>431122</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>434076</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>455024</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>485962</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>500935</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>501502</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>561458</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>555214</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>554876</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>576656</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>587662</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>604896</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>603418</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>600655</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>638486</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>655758</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>660365</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>658463</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>615883</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>608753</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>638106</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>677010</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>671219</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>648007</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>654371</v>
       </c>
+      <c r="BU2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:73">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Non- Agriculture</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="n">
         <v>3966881</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>4288704</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>4664662</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>4929992</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>4783071</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>4378263</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>4577180</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>4770638</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>4936559</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>5268075</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>5622908</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>6019940</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>6298231</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>6617766</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>7001681</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>7113790</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>7061105</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>7652694</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>7667868</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>8268855</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>8512404</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>8610047</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>8972642</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>9320992</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>9704831</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>10097962</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>10342366</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>9676566</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>9829805</v>
       </c>
+      <c r="BU3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:73">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1832.005582</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>1905.627621</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>2093.626759</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>2116.304977</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>2184.339629</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>2292.702069</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>2403.23373</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>1765.942948</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>2134.381817</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>2508.079403</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>2709.992337</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>3107.649787</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>3321.89956</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>3869.655219</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>4907.183393</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>5830.390191</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>6464.503724</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>7126.58076</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>7443.226299</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>7369.205264</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>7930.33747</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>7923.716441</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>7501.625843</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>7802.882662</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>7058.016901</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>8365.670126000001</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>10216.24773</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>12306.83763</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>12730.58349</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>13104.67162</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>15904.76616</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>21052.27964</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>22268.96465</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>30879.35085</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>41166.73772</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>41086.51673</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>46044.93789</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>50804.71659</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>53914.23494</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>59311.96151</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>68923.20005</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>72502.5842</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>84687</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>92039</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>97317</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>113695</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>120739</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>112666</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>120571</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>126376</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>126562</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>137027</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>149511</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>153475</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>172119</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>187491</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>194235</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>206926</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>209493</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>224233</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>220689</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>237731</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>242847</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>238881</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>244584</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>246599</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>231893</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>225099</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>228903</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>208457</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>193664</v>
       </c>
+      <c r="BU4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:73">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Manu- facturing</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>25185.23083</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>27042.78304</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>32627.4287</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>33901.26442</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>35753.57142</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>37238.88635</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>35900.43719</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>37055.88112</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>42110.01167</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>45445.96263</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>49750.2913</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>55858.17901</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>60908.14431</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>66148.08864</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>76704.96225</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>85647.01416000001</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>96013.90875</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>103023.2656</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>116849.5168</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>112474.1133</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>124926.556</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>141472.5811</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>163734.2593</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>173850.7395</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>183931.0732</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>212102.6915</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>242429.5404</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>263584.2344</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>285389.5641</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>293617.3936</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>312070.8317</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>320336.8255</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>356177.9296</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>378244.6964</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>373066.1021</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>409780.9724</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>475492.9099</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>560760.2324</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>650638.4796</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>752624.2303000001</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>840842.6003</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>935870.2236</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>1106448</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>1198476</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>1332912</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>1411413</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>1424641</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>1306372</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>1435133</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>1482156</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>1511264</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>1645197</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>1813028</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>1948505</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>2030366</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>2145309</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>2301302</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>2355846</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>2277673</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>2537467</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>2414065</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>2581220</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>2629739</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>2630599</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>2670305</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>2730588</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>2809907</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>2907209</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>2883121</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>2722723</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>2855185</v>
       </c>
+      <c r="BU5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:73">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>6438.085922</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>8652.157674</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>9527.196731</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>9393.432798</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>10896.88366</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>12063.43752</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>15052.62249</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>15240.72802</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>18536.05822</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>20543.21389</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>21578.17638</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>24651.40439</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>27238.43372</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>31298.38125</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>34767.35238</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>42243.5053</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>50052.08243</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>52343.62356</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>53112.49591</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>52908.97087</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>53596.60113</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>51199.53491</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>50081.33244</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>47099.45919</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>49001.68868</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>60113.02241</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>71725.61933</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>83781.64135000001</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>82612.02727999999</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>86615.70623</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>92422.90033</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>99284.81985</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>111205.2852</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>122823.8096</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>122573.5708</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>124370.7402</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>136617.9637</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>153967.1628</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>197614.1825</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>241151.5935</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>274009.3926</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>286843.9534</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>300828</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>343788</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>373024</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>402779</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>290873</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>193977</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>175444</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>156968</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>157838</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>166717</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>171650</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>185574</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>204071</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>206505</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>214637</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>203208</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>210465</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>228357</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>218453</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>235806</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>235097</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>229387</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>268505</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>289919</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>281274</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>287681</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>292181</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>295981</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>304024</v>
       </c>
+      <c r="BU6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:73">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Vehicles and Personal and Household Goods</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="n">
         <v>789368</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>865112</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>949819</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>971834</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>948033</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>840030</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>846931</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>864394</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>888617</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>905557</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>950106</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>995457</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>1011847</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>1062685</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>1136194</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>1134505</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>1106531</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>1207320</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>1207539</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>1270533</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>1280405</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>1270240</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>1340762</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>1423314</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>1514519</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>1610858</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>1683855</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>1630334</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>1658744</v>
       </c>
+      <c r="BU7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:73">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Accommodation and food service activities</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="n">
         <v>180235</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>175562</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>181268</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>183921</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>182268</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>186367</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>190362</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>203590</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>213731</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>216850</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>215206</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>233468</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>235083</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>257526</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>267371</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>278603</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>273925</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>299483</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>336296</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>383695</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>420921</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>431373</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>496116</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>542053</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>600672</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>648597</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>698404</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>436403</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>373594</v>
       </c>
+      <c r="BU8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:73">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Financial and insurance activities</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="n">
         <v>439355</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="n">
         <v>500426</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="n">
         <v>491455</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" t="n">
         <v>504267</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" t="n">
         <v>389521</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" t="n">
         <v>254519</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" t="n">
         <v>205858</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" t="n">
         <v>227310</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>245311</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>276618</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>308503</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>328343</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>346378</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>344481</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>355205</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>352598</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>392178</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>407456</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>432408</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>498637</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>560170</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>602103</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>652506</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>698410</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>744929</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>772489</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>787246</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>827590</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>874846</v>
       </c>
+      <c r="BU9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:73">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Public Administration and Defence; Compulsory Social Security</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>9642.097222</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>14924.41738</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>15399.85768</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>17520.97214</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>20234.02551</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>23912.03377</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>24957.99194</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>24542.37525</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>24793.21461</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>26982.54898</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>28309.55958</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>29706.46776</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>32563.9222</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>33470.50413</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>36073.40622</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>36946.60424</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>40363.23925</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>45996.77484</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>49731.60029</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>54572.2679</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>58110.16548</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>62368.30618</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>67987.78554</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>69507.4194</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>76725.68021000001</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>83848.96391000001</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>92373.16007</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>97129.93063</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>111795.9803</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>122180.145</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>134147.0423</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>140813.2967</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>155569.6655</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>153543.9008</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>164756.7995</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>169339.0403</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>173830.6719</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>182797.7548</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>185350.9949</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>198573.478</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>211177.8764</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>214161.5106</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>184802</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>194223</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>228944</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>244365</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>263797</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>288169</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>305571</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>314189</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>324330</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>340609</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>349903</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>350770</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>368576</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>379416</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>408396</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>422283</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>438334</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>456060</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>473339</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>492986</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>495464</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>502005</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>507469</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>509646</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>513564</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>521430</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>528806</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>537481</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>540928</v>
       </c>
+      <c r="BU10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:73">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="n">
         <v>162965</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>167784</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>174634</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>181835</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>192930</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>209880</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>209319</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>211451</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>213540</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>214706</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>222761</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>234358</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>244836</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>252814</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>263994</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>265668</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>273843</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>288617</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>296470</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>311026</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>316789</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>323734</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>324306</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>323601</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>324972</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>328186</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>332157</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>336391</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>338527</v>
       </c>
+      <c r="BU11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:73">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Health and Social Work</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="n">
         <v>75991</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>79075</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>84503</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>92058</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>93405</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>96251</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>101784</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>104762</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>111794</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>119136</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>118749</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>126030</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>129700</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>133127</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>138410</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>141798</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>158039</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>166527</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>174522</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>184772</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>191676</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>202001</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>208550</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>214831</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>223610</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>234365</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>243098</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>250763</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>260241</v>
       </c>
+      <c r="BU12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:73">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Private Household with Employed Persons</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="n">
         <v>19544</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>19186</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>18806</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>18538</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>18672</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>19008</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>18835</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>18867</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>19219</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>17607</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>19318</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>18364</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>18392</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>16871</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>17621</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>16453</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>17960</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>17636</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>18688</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>19116</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>17731</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>16946</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>17581</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>17564</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>17071</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>16633</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>16534</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>16989</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>17167</v>
       </c>
+      <c r="BU13" t="inlineStr"/>
     </row>
-    <row r="14" spans="1:73">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product (sum up)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="n">
         <v>1638456.99595294</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>1724343.01307392</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>1816972.24389014</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>1930136.97126917</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>2028626.03319675</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>2109479.82814442</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>2219100.23028876</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>2435215.91126138</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="n">
         <v>2761756.21436813</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" t="n">
         <v>3108567.53900749</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" t="n">
         <v>3457420.898744</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" t="n">
         <v>3746180.85382881</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" t="n">
         <v>4016987.09240754</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" t="n">
         <v>4405824</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" t="n">
         <v>4761870</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="n">
         <v>5076098</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" t="n">
         <v>5363198</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" t="n">
         <v>5252537</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" t="n">
         <v>4826101</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" t="n">
         <v>5033797</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" t="n">
         <v>5257092</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" t="n">
         <v>5437688</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" t="n">
         <v>5769570</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" t="n">
         <v>6184370</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" t="n">
         <v>6575760</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" t="n">
         <v>6853720</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" t="n">
         <v>7204272</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" t="n">
         <v>7599269</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>7735172</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>7664813</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>8254516</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>8330847</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>8954331</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>9215808</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>9321544</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>9663113</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>10018752</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>10451118</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>10907009</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>11198585</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>10508680</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>10655494</v>
       </c>
+      <c r="BU14" t="inlineStr"/>
     </row>
-    <row r="15" spans="1:73">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product (CVM)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>237706.83092869</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>250875.209605955</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>278519.36370865</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>276332.374319256</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>300486.35289939</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>305616.105541961</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>309025.440813053</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>320196.780951367</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>358718.210316679</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>402220.417531423</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>423168.8919657</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>456062.073995463</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>492985.769154872</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>526628.0069487609</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>568554.722445623</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>632556.037130272</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>685408.186821231</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>741585.114288102</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>799685.751863205</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>852042.366312386</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>893325.25588027</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>931005.021898892</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>1023813.67429789</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>1069691.31649041</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>1122635.04608524</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="n">
         <v>1225564.94177703</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="n">
         <v>1346421.65085654</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" t="n">
         <v>1479404.63078088</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="n">
         <v>1556906.18964821</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" t="n">
         <v>1628602.22841532</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="n">
         <v>1724801.60840298</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="n">
         <v>1817119.00573981</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" t="n">
         <v>1918590.61009897</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="n">
         <v>2028956.19674814</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" t="n">
         <v>2123246.66791163</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" t="n">
         <v>2240743.48164343</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" t="n">
         <v>2454038.6440973</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" t="n">
         <v>2780134.09857271</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" t="n">
         <v>3119046.5122961</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" t="n">
         <v>3467355.53416236</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" t="n">
         <v>3764100.84708076</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" t="n">
         <v>4068367.72418029</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" t="n">
         <v>4341027</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" t="n">
         <v>4688180</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" t="n">
         <v>5068875</v>
       </c>
-      <c r="AU15">
+      <c r="AU15" t="n">
         <v>5355365</v>
       </c>
-      <c r="AV15">
+      <c r="AV15" t="n">
         <v>5207901</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" t="n">
         <v>4810328</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" t="n">
         <v>5030271</v>
       </c>
-      <c r="AY15">
+      <c r="AY15" t="n">
         <v>5254382</v>
       </c>
-      <c r="AZ15">
+      <c r="AZ15" t="n">
         <v>5435356</v>
       </c>
-      <c r="BA15">
+      <c r="BA15" t="n">
         <v>5769577</v>
       </c>
-      <c r="BB15">
+      <c r="BB15" t="n">
         <v>6184367</v>
       </c>
-      <c r="BC15">
+      <c r="BC15" t="n">
         <v>6573323</v>
       </c>
-      <c r="BD15">
+      <c r="BD15" t="n">
         <v>6848590</v>
       </c>
-      <c r="BE15">
+      <c r="BE15" t="n">
         <v>7188815</v>
       </c>
-      <c r="BF15">
+      <c r="BF15" t="n">
         <v>7579538</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" t="n">
         <v>7710338</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" t="n">
         <v>7657089</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" t="n">
         <v>8232396</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" t="n">
         <v>8301559</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" t="n">
         <v>8902824</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" t="n">
         <v>9142087</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" t="n">
         <v>9232088</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" t="n">
         <v>9521426</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" t="n">
         <v>9848502</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" t="n">
         <v>10259941</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" t="n">
         <v>10693205</v>
       </c>
-      <c r="BR15">
+      <c r="BR15" t="n">
         <v>10923286</v>
       </c>
-      <c r="BS15">
+      <c r="BS15" t="n">
         <v>10246535</v>
       </c>
-      <c r="BT15">
+      <c r="BT15" t="n">
         <v>10403700</v>
       </c>
+      <c r="BU15" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>